--- a/dmn.tool/docs/DMN-云田、古亭3台主变.xlsx
+++ b/dmn.tool/docs/DMN-云田、古亭3台主变.xlsx
@@ -288,9 +288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -299,6 +296,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,29 +583,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="1.625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="24.875" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="12" width="7.375" customWidth="1"/>
-    <col min="13" max="13" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="24.875" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="11" width="7.375" customWidth="1"/>
+    <col min="12" max="12" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,7 +617,9 @@
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,16 +630,13 @@
         <v>0</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="27">
+    <row r="2" spans="1:12" ht="27">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -654,24 +652,23 @@
       <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="G2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="I2" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -687,24 +684,23 @@
       <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G3" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="40.5">
+    <row r="4" spans="1:12" ht="40.5">
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
@@ -717,7 +713,9 @@
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
@@ -728,14 +726,11 @@
         <v>2</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:12">
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -747,28 +742,27 @@
       <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>3</v>
+      <c r="I6" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="12"/>
+    <row r="7" spans="1:12">
+      <c r="B7" s="15"/>
       <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
@@ -778,28 +772,27 @@
       <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="27">
-      <c r="B8" s="12"/>
+    <row r="8" spans="1:12" ht="27" outlineLevel="1">
+      <c r="B8" s="15"/>
       <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
@@ -809,27 +802,26 @@
       <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="27">
+    <row r="9" spans="1:12" ht="27" outlineLevel="1">
       <c r="B9" s="10" t="s">
         <v>40</v>
       </c>
@@ -842,27 +834,26 @@
       <c r="E9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>3</v>
+      <c r="I9" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:12">
       <c r="B10" s="11" t="s">
         <v>33</v>
       </c>
@@ -875,27 +866,26 @@
       <c r="E10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>3</v>
+      <c r="I10" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:12">
       <c r="D11" t="s">
         <v>8</v>
       </c>

--- a/dmn.tool/docs/DMN-云田、古亭3台主变.xlsx
+++ b/dmn.tool/docs/DMN-云田、古亭3台主变.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>input</t>
   </si>
@@ -191,6 +191,10 @@
   </si>
   <si>
     <t>古亭主变下网的35%+云田主变下网之和越界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -586,7 +590,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:J9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -723,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>9</v>
